--- a/users.xlsx
+++ b/users.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -390,129 +390,144 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ism</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Familiya</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Ism</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Sharifi</t>
+          <t>Sharif</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Telefon raqami</t>
+          <t>User_id</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>User_id</t>
+          <t>Tel_raqam</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Viloyat</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tuman</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Maktab_raqami</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sinf_raqami</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Mirabror</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Fayzullayev</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mirabror</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>998971010158</t>
+          <t>640077553</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>640077553</t>
+          <t>+9989653612236</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Farg'ona</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>So'x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Vali</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Aliyev</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Vali</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>985674556</t>
+          <t>67116405</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67116405</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nabiyev</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nabi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>998881700158</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1936422112</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nabiyev</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nabi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>🔠 Test Ishlash</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1936422112</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Navoiy</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Karmana</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
